--- a/Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_1.2_KS_Holdout_seed_999/metrics/Trial_282__Reeval_Halton_Modell_1.2.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_1.2_KS_Holdout_seed_999/metrics/Trial_282__Reeval_Halton_Modell_1.2.xlsx
@@ -5987,46 +5987,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>95.01349639892578</c:v>
+                  <c:v>95.01351165771484</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.9510446786880493</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>73.01167297363281</c:v>
+                  <c:v>73.01168060302734</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.9510446786880493</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>98.84136199951172</c:v>
+                  <c:v>98.84136962890625</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>90.87584686279297</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>98.39987945556641</c:v>
+                  <c:v>98.39987182617188</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.9510446786880493</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>21.9264965057373</c:v>
+                  <c:v>21.92648506164551</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>95.69844818115234</c:v>
+                  <c:v>95.69843292236328</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>96.20420837402344</c:v>
+                  <c:v>96.2042236328125</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.9510446786880493</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>97.58681488037109</c:v>
+                  <c:v>97.58680725097656</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>93.89170074462891</c:v>
+                  <c:v>93.89170837402344</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0.9510446786880493</c:v>
@@ -6041,7 +6041,7 @@
                   <c:v>0.9510446786880493</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>77.69187927246094</c:v>
+                  <c:v>77.69187164306641</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>31.67682075500488</c:v>
@@ -6053,13 +6053,13 @@
                   <c:v>0.9510446786880493</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>94.43314361572266</c:v>
+                  <c:v>94.43312835693359</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.611494064331055</c:v>
+                  <c:v>2.611491918563843</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.739162921905518</c:v>
+                  <c:v>3.739166259765625</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0.9510446786880493</c:v>
@@ -6074,10 +6074,10 @@
                   <c:v>96.81990051269531</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>92.42826080322266</c:v>
+                  <c:v>92.42827606201172</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>43.5133171081543</c:v>
+                  <c:v>43.51332473754883</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>0.9510446786880493</c:v>
@@ -6089,55 +6089,55 @@
                   <c:v>0.9510446786880493</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>95.65727996826172</c:v>
+                  <c:v>95.65727233886719</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>0.9510446786880493</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>79.64170837402344</c:v>
+                  <c:v>79.64171600341797</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>23.47104644775391</c:v>
+                  <c:v>23.47105026245117</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>97.39830017089844</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>11.84240913391113</c:v>
+                  <c:v>11.84241199493408</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>69.65741729736328</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>97.61849975585938</c:v>
+                  <c:v>97.61851501464844</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>95.96019744873047</c:v>
+                  <c:v>95.96018981933594</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>58.16007232666016</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>72.68521881103516</c:v>
+                  <c:v>72.68523406982422</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>96.32109069824219</c:v>
+                  <c:v>96.32108306884766</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>89.21010589599609</c:v>
+                  <c:v>89.21009063720703</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>0.9510446786880493</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>66.18195343017578</c:v>
+                  <c:v>66.18194580078125</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>99.52561187744141</c:v>
+                  <c:v>99.52562713623047</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>58.92184448242188</c:v>
+                  <c:v>58.92185211181641</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>0.9510446786880493</c:v>
@@ -6149,19 +6149,19 @@
                   <c:v>0.9510446786880493</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>95.24040985107422</c:v>
+                  <c:v>95.24040222167969</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>61.74240493774414</c:v>
+                  <c:v>61.74241638183594</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>26.6760139465332</c:v>
+                  <c:v>26.67602920532227</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>9.263118743896484</c:v>
+                  <c:v>9.263120651245117</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>95.80157470703125</c:v>
+                  <c:v>95.80156707763672</c:v>
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>0.9510446786880493</c:v>
@@ -6173,7 +6173,7 @@
                   <c:v>0.9510446786880493</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>76.07061767578125</c:v>
+                  <c:v>76.07060241699219</c:v>
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>93.83909606933594</c:v>
@@ -6197,16 +6197,16 @@
                   <c:v>0.9510446786880493</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>97.03448486328125</c:v>
+                  <c:v>97.03447723388672</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>96.68857574462891</c:v>
+                  <c:v>96.68858337402344</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>98.15986633300781</c:v>
+                  <c:v>98.15985870361328</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>102.7585296630859</c:v>
+                  <c:v>102.7585372924805</c:v>
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>0.9510446786880493</c:v>
@@ -6218,10 +6218,10 @@
                   <c:v>80.04095458984375</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>96.49594116210938</c:v>
+                  <c:v>96.49595642089844</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>49.67329406738281</c:v>
+                  <c:v>49.67330551147461</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>0.9510446786880493</c:v>
@@ -6236,7 +6236,7 @@
                   <c:v>0.9510446786880493</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>86.07809448242188</c:v>
+                  <c:v>86.07808685302734</c:v>
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>53.48358917236328</c:v>
@@ -6251,7 +6251,7 @@
                   <c:v>0.9510446786880493</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>94.12296295166016</c:v>
+                  <c:v>94.12297058105469</c:v>
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>53.05092239379883</c:v>
@@ -6275,16 +6275,16 @@
                   <c:v>0.9510446786880493</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>91.30979156494141</c:v>
+                  <c:v>91.30977630615234</c:v>
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>0.9510446786880493</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>51.89102554321289</c:v>
+                  <c:v>51.89102935791016</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>98.92434692382812</c:v>
+                  <c:v>98.92433929443359</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6979,7 +6979,7 @@
         <v>96.2991</v>
       </c>
       <c r="F2">
-        <v>95.01349639892578</v>
+        <v>95.01351165771484</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -7043,7 +7043,7 @@
         <v>88.0701</v>
       </c>
       <c r="F4">
-        <v>73.01167297363281</v>
+        <v>73.01168060302734</v>
       </c>
       <c r="G4">
         <v>105</v>
@@ -7107,7 +7107,7 @@
         <v>96.7841</v>
       </c>
       <c r="F6">
-        <v>98.84136199951172</v>
+        <v>98.84136962890625</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -7171,7 +7171,7 @@
         <v>97.5325</v>
       </c>
       <c r="F8">
-        <v>98.39987945556641</v>
+        <v>98.39987182617188</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -7211,7 +7211,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>21.9264965057373</v>
+        <v>21.92648506164551</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -7231,7 +7231,7 @@
         <v>94.40819999999999</v>
       </c>
       <c r="F11">
-        <v>95.69844818115234</v>
+        <v>95.69843292236328</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -7251,7 +7251,7 @@
         <v>93.5943</v>
       </c>
       <c r="F12">
-        <v>96.20420837402344</v>
+        <v>96.2042236328125</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -7291,7 +7291,7 @@
         <v>97.7777</v>
       </c>
       <c r="F14">
-        <v>97.58681488037109</v>
+        <v>97.58680725097656</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -7311,7 +7311,7 @@
         <v>93.9735</v>
       </c>
       <c r="F15">
-        <v>93.89170074462891</v>
+        <v>93.89170837402344</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -7411,7 +7411,7 @@
         <v>70.7677</v>
       </c>
       <c r="F20">
-        <v>77.69187927246094</v>
+        <v>77.69187164306641</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -7491,7 +7491,7 @@
         <v>94.6263</v>
       </c>
       <c r="F24">
-        <v>94.43314361572266</v>
+        <v>94.43312835693359</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -7511,7 +7511,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.611494064331055</v>
+        <v>2.611491918563843</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -7531,7 +7531,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>3.739162921905518</v>
+        <v>3.739166259765625</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -7631,7 +7631,7 @@
         <v>94.28400000000001</v>
       </c>
       <c r="F31">
-        <v>92.42826080322266</v>
+        <v>92.42827606201172</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7651,7 +7651,7 @@
         <v>86.7184</v>
       </c>
       <c r="F32">
-        <v>43.5133171081543</v>
+        <v>43.51332473754883</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7731,7 +7731,7 @@
         <v>94.44029999999999</v>
       </c>
       <c r="F36">
-        <v>95.65727996826172</v>
+        <v>95.65727233886719</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7771,7 +7771,7 @@
         <v>86.19970000000001</v>
       </c>
       <c r="F38">
-        <v>79.64170837402344</v>
+        <v>79.64171600341797</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7791,7 +7791,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>23.47104644775391</v>
+        <v>23.47105026245117</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7831,7 +7831,7 @@
         <v>36.7921</v>
       </c>
       <c r="F41">
-        <v>11.84240913391113</v>
+        <v>11.84241199493408</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -7871,7 +7871,7 @@
         <v>96.66849999999999</v>
       </c>
       <c r="F43">
-        <v>97.61849975585938</v>
+        <v>97.61851501464844</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -7891,7 +7891,7 @@
         <v>92.40940000000001</v>
       </c>
       <c r="F44">
-        <v>95.96019744873047</v>
+        <v>95.96018981933594</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -7931,7 +7931,7 @@
         <v>90.426</v>
       </c>
       <c r="F46">
-        <v>72.68521881103516</v>
+        <v>72.68523406982422</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -7951,7 +7951,7 @@
         <v>92.2792</v>
       </c>
       <c r="F47">
-        <v>96.32109069824219</v>
+        <v>96.32108306884766</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -7971,7 +7971,7 @@
         <v>95.2355</v>
       </c>
       <c r="F48">
-        <v>89.21010589599609</v>
+        <v>89.21009063720703</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -8011,7 +8011,7 @@
         <v>60.2136</v>
       </c>
       <c r="F50">
-        <v>66.18195343017578</v>
+        <v>66.18194580078125</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -8031,7 +8031,7 @@
         <v>97.8107</v>
       </c>
       <c r="F51">
-        <v>99.52561187744141</v>
+        <v>99.52562713623047</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -8051,7 +8051,7 @@
         <v>52.4695</v>
       </c>
       <c r="F52">
-        <v>58.92184448242188</v>
+        <v>58.92185211181641</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -8131,7 +8131,7 @@
         <v>92.9953</v>
       </c>
       <c r="F56">
-        <v>95.24040985107422</v>
+        <v>95.24040222167969</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -8151,7 +8151,7 @@
         <v>58.6329</v>
       </c>
       <c r="F57">
-        <v>61.74240493774414</v>
+        <v>61.74241638183594</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -8171,7 +8171,7 @@
         <v>27.5735</v>
       </c>
       <c r="F58">
-        <v>26.6760139465332</v>
+        <v>26.67602920532227</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -8191,7 +8191,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>9.263118743896484</v>
+        <v>9.263120651245117</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -8211,7 +8211,7 @@
         <v>95.5249</v>
       </c>
       <c r="F60">
-        <v>95.80157470703125</v>
+        <v>95.80156707763672</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -8291,7 +8291,7 @@
         <v>72.6528</v>
       </c>
       <c r="F64">
-        <v>76.07061767578125</v>
+        <v>76.07060241699219</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -8451,7 +8451,7 @@
         <v>94.26949999999999</v>
       </c>
       <c r="F72">
-        <v>97.03448486328125</v>
+        <v>97.03447723388672</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -8471,7 +8471,7 @@
         <v>95.1549</v>
       </c>
       <c r="F73">
-        <v>96.68857574462891</v>
+        <v>96.68858337402344</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -8491,7 +8491,7 @@
         <v>95.4374</v>
       </c>
       <c r="F74">
-        <v>98.15986633300781</v>
+        <v>98.15985870361328</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -8511,7 +8511,7 @@
         <v>98.0594</v>
       </c>
       <c r="F75">
-        <v>102.7585296630859</v>
+        <v>102.7585372924805</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -8591,7 +8591,7 @@
         <v>93.7921</v>
       </c>
       <c r="F79">
-        <v>96.49594116210938</v>
+        <v>96.49595642089844</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -8611,7 +8611,7 @@
         <v>49.6912</v>
       </c>
       <c r="F80">
-        <v>49.67329406738281</v>
+        <v>49.67330551147461</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -8711,7 +8711,7 @@
         <v>60.5714</v>
       </c>
       <c r="F85">
-        <v>86.07809448242188</v>
+        <v>86.07808685302734</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -8811,7 +8811,7 @@
         <v>93.3051</v>
       </c>
       <c r="F90">
-        <v>94.12296295166016</v>
+        <v>94.12297058105469</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -8971,7 +8971,7 @@
         <v>94.0264</v>
       </c>
       <c r="F98">
-        <v>91.30979156494141</v>
+        <v>91.30977630615234</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -9011,7 +9011,7 @@
         <v>50.6355</v>
       </c>
       <c r="F100">
-        <v>51.89102554321289</v>
+        <v>51.89102935791016</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -9031,7 +9031,7 @@
         <v>98.1628</v>
       </c>
       <c r="F101">
-        <v>98.92434692382812</v>
+        <v>98.92433929443359</v>
       </c>
     </row>
     <row r="102" spans="1:6">
